--- a/Docs/Datasets/MRA.xlsx
+++ b/Docs/Datasets/MRA.xlsx
@@ -16,18 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
-    <t>MPA Name</t>
-  </si>
-  <si>
-    <t>Longitude (E)</t>
-  </si>
-  <si>
-    <t>Latitude (N)</t>
-  </si>
-  <si>
-    <t>Area (km²)</t>
-  </si>
-  <si>
     <t>State/UT</t>
   </si>
   <si>
@@ -206,6 +194,18 @@
   </si>
   <si>
     <t>72.60-72.70</t>
+  </si>
+  <si>
+    <t>MPA_Name</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -462,383 +462,383 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>260</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>577.26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>842.5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>89.97</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <v>209.31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>61.52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>14.66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>33.25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>4.33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1">
         <v>4.33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1">
         <v>4.33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1">
         <v>4.33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1">
         <v>4.33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1">
         <v>4.33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1">
         <v>4.33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1">
         <v>4.33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1">
         <v>4.3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Datasets/MRA.xlsx
+++ b/Docs/Datasets/MRA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>State/UT</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>_id</t>
   </si>
 </sst>
 </file>
@@ -246,9 +249,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,385 +463,471 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>260</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f>SUM(A2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>340</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <f t="shared" ref="A4:A22" si="0">SUM(A3+1)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>577.26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>842.5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>89.97</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>209.31</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>15</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>61.52</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>14.66</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>33.25</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>4.33</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>4.33</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>4.33</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>4.33</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>4.33</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>4.33</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>4.33</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>4.33</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>4.3</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Docs/Datasets/MRA.xlsx
+++ b/Docs/Datasets/MRA.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="give me a list of the all the m" sheetId="1" r:id="rId1"/>
+    <sheet name="MRA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>State/UT</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>Area</t>
-  </si>
-  <si>
-    <t>_id</t>
   </si>
 </sst>
 </file>
@@ -249,10 +246,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,471 +459,385 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>64</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>260</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>260</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>340</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <f>SUM(A2+1)</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>340</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <f t="shared" ref="A4:A22" si="0">SUM(A3+1)</f>
-        <v>3</v>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>577.26</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>842.5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>89.97</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>842.5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>209.31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1">
-        <v>89.97</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1">
-        <v>209.31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="D11" s="1">
+        <v>61.52</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>14.66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <v>33.25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1">
-        <v>61.52</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1">
-        <v>14.66</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1">
-        <v>33.25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="1">
         <v>4.33</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1">
+      <c r="D15" s="1">
         <v>4.33</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1">
         <v>4.33</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1">
         <v>4.33</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4.33</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="1">
-        <v>4.33</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4.33</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4.33</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="1">
         <v>4.3</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>40</v>
       </c>
     </row>
